--- a/なんでも実況VIP１０周年.xlsx
+++ b/なんでも実況VIP１０周年.xlsx
@@ -4,27 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18315" windowHeight="11895" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18315" windowHeight="11895" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId9"/>
-    <sheet name="ゲーム達成条件" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
+    <sheet name="種目" sheetId="5" r:id="rId5"/>
+    <sheet name="イベント" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
+    <sheet name="ゲーム達成条件" sheetId="11" r:id="rId11"/>
+    <sheet name="ゲーム達成条件（罰ゲ）" sheetId="12" r:id="rId12"/>
+    <sheet name="普通企画" sheetId="14" r:id="rId13"/>
+    <sheet name="なん実ゲーム作成" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="841">
   <si>
     <t>なんでも実況VIP10周年記念企画</t>
     <rPh sb="4" eb="6">
@@ -835,13 +838,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お絵かき</t>
-    <rPh sb="1" eb="2">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>各時間ごとに、00分00秒00ゲットするとボーナス</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -887,12 +883,6 @@
     <t>ゲームリレー</t>
   </si>
   <si>
-    <t>マージャン</t>
-  </si>
-  <si>
-    <t>格ゲートーナメント</t>
-  </si>
-  <si>
     <t>マイクラ</t>
   </si>
   <si>
@@ -922,16 +912,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>おつかい（どこそこの駅でスタンプラリーとってこいとかのミッション系）</t>
-    <rPh sb="10" eb="11">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>🌸ゲームビンゴ大会</t>
     <rPh sb="8" eb="10">
       <t>タイカイ</t>
@@ -950,16 +930,6 @@
     <t>🌸なん実黄龍杯（麻雀）</t>
     <rPh sb="9" eb="11">
       <t>マージャン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>？どうぶつ将棋大会</t>
-    <rPh sb="5" eb="7">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイカイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3402,6 +3372,349 @@
     <rPh sb="25" eb="27">
       <t>サイショ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▲どうぶつ将棋大会</t>
+    <rPh sb="5" eb="7">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム性が欲しい</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⇒応援大会・チアガール的なものでどうだ？</t>
+    <rPh sb="1" eb="3">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>🌸おつかい（どこそこの駅でスタンプラリーとってこいとかのミッション系）</t>
+    <rPh sb="12" eb="13">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント候補</t>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なん実１０周年思い出よもやま話</t>
+    <rPh sb="2" eb="3">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>格ゲートーナメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>準備期間が足りないのであきらめる</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よくわかんないので却下</t>
+    <rPh sb="9" eb="11">
+      <t>キャッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットで出来ないから無理</t>
+    <rPh sb="4" eb="6">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なん実これからの10年しゃべり場</t>
+    <rPh sb="2" eb="3">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>センター試験の点数</t>
+  </si>
+  <si>
+    <t>普通の企画ネタメモ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無縁仏掃除大会</t>
+  </si>
+  <si>
+    <t>海岸いってゴミ拾い</t>
+  </si>
+  <si>
+    <t>テーマは１，２か月前には発表</t>
+    <rPh sb="8" eb="9">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２ｃｈのお絵かき機能またはマリペ縛り</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>🌸うろ覚えお絵かき</t>
+    <rPh sb="4" eb="5">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お悩み相談</t>
+    <rPh sb="1" eb="2">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>密室の中で鳥が飛ぶやつ</t>
+  </si>
+  <si>
+    <t>🌺無料のFPSで対抗戦</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>❀なんかのネットゲー（未定）</t>
+    <rPh sb="11" eb="13">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なん実でゲーム作ろうぜい！</t>
+    <rPh sb="2" eb="3">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーマ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016年現在で、なんたらツクールのような仕組みがどんだけ高度化したのか？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローグ系だって作れちゃう？</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームを作る系の基盤をちょっと洗ってみよう</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Unity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ウディタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・デザエモン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スレに貼ってあったファミコン昔話作るやつ</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムカシバナシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・吉里吉里</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⇒さすがに時間がなさすぎるので、体験版を8月リリースで年内完成目指すか・・・</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネンナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノベルゲーはライターを見つけないといけない</t>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チンピク絵師を急募</t>
+    <rPh sb="4" eb="6">
+      <t>エシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改造PLOKを作る</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・２Ｄジャンプアクション</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4545,7 +4858,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4669,17 +4982,17 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -4745,6 +5058,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
@@ -4756,102 +5110,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4860,13 +5214,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4880,19 +5234,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4901,16 +5255,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4919,16 +5273,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4937,16 +5291,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4955,16 +5309,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4973,16 +5327,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4991,16 +5345,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5009,16 +5363,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5027,16 +5381,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5045,16 +5399,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5063,16 +5417,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5081,16 +5435,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5099,16 +5453,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5117,16 +5471,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>225</v>
-      </c>
       <c r="E14" s="54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5135,16 +5489,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -5153,16 +5507,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5171,16 +5525,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -5189,16 +5543,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -5207,16 +5561,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -5225,16 +5579,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -5243,16 +5597,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -5261,16 +5615,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5279,16 +5633,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5297,16 +5651,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5315,16 +5669,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -5333,16 +5687,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -5351,16 +5705,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -5369,16 +5723,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -5387,16 +5741,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5405,16 +5759,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -5423,16 +5777,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -5441,16 +5795,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -5459,16 +5813,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -5477,16 +5831,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5495,16 +5849,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5513,16 +5867,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E36" s="54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -5531,16 +5885,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -5549,16 +5903,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -5567,16 +5921,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -5585,16 +5939,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -5603,16 +5957,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -5621,16 +5975,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -5639,16 +5993,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -5657,16 +6011,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -5675,16 +6029,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -5693,16 +6047,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -5711,16 +6065,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -5729,16 +6083,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -5747,16 +6101,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -5765,16 +6119,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -5783,16 +6137,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -5801,16 +6155,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -5819,16 +6173,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>328</v>
-      </c>
       <c r="E53" s="56" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -5837,16 +6191,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -5855,16 +6209,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -5873,16 +6227,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -5891,16 +6245,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -5909,16 +6263,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -5927,16 +6281,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -5945,16 +6299,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -5963,16 +6317,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -5981,16 +6335,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E62" s="54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -5999,16 +6353,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -6017,16 +6371,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -6035,16 +6389,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -6053,16 +6407,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E66" s="54" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -6071,16 +6425,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -6089,16 +6443,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -6107,16 +6461,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -6125,16 +6479,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -6143,16 +6497,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -6161,16 +6515,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -6179,16 +6533,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -6197,16 +6551,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -6215,16 +6569,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -6233,16 +6587,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -6251,16 +6605,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="55" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -6269,16 +6623,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E78" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -6287,16 +6641,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -6305,16 +6659,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E80" s="54" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -6323,16 +6677,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -6341,16 +6695,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -6359,16 +6713,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -6377,16 +6731,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E84" s="54" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -6395,16 +6749,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E85" s="56" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -6413,16 +6767,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E86" s="54" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -6431,16 +6785,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E87" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -6449,16 +6803,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E88" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -6467,16 +6821,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -6485,16 +6839,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="53" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E90" s="54" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -6503,16 +6857,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -6521,16 +6875,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="53" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E92" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -6539,16 +6893,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -6557,16 +6911,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E94" s="54" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -6575,16 +6929,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D95" s="55" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -6593,16 +6947,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E96" s="54" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -6611,16 +6965,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -6629,16 +6983,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E98" s="54" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -6647,14 +7001,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="55" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="56" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -6663,16 +7017,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E100" s="54" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -6681,16 +7035,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -6699,16 +7053,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="53" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E102" s="54" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -6717,16 +7071,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -6735,16 +7089,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E104" s="54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -6753,16 +7107,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -6771,16 +7125,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E106" s="54" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -6789,16 +7143,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -6807,16 +7161,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E108" s="54" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -6825,16 +7179,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -6843,16 +7197,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E110" s="54" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -6861,16 +7215,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C111" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -6879,16 +7233,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -6897,16 +7251,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E113" s="56" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -6915,16 +7269,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E114" s="54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -6933,16 +7287,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C115" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -6951,16 +7305,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D116" s="53" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E116" s="54" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -6969,16 +7323,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D117" s="55" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -6987,16 +7341,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E118" s="54" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -7005,16 +7359,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="55" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -7023,16 +7377,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E120" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -7041,16 +7395,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="55" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -7059,16 +7413,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E122" s="54" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -7077,16 +7431,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -7095,16 +7449,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E124" s="54" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -7113,16 +7467,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="55" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C125" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -7131,16 +7485,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D126" s="53" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E126" s="54" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -7149,16 +7503,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="55" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C127" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D127" s="55" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -7167,16 +7521,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="53" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D128" s="53" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E128" s="54" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -7185,16 +7539,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -7203,16 +7557,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D130" s="53" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -7221,16 +7575,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="55" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C131" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D131" s="55" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -7239,16 +7593,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D132" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E132" s="54" t="s">
         <v>503</v>
-      </c>
-      <c r="E132" s="54" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -7257,16 +7611,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -7275,16 +7629,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D134" s="53" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -7293,16 +7647,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D135" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="E135" s="56" t="s">
         <v>503</v>
-      </c>
-      <c r="E135" s="56" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -7311,16 +7665,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="53" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D136" s="53" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E136" s="54" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -7329,16 +7683,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E137" s="56" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -7347,16 +7701,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="53" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C138" s="53" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D138" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E138" s="54" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -7365,16 +7719,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -7383,16 +7737,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="53" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C140" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D140" s="53" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -7401,16 +7755,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D141" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -7419,16 +7773,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D142" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E142" s="54" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -7437,16 +7791,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="55" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D143" s="55" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E143" s="56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -7455,16 +7809,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="53" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D144" s="53" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -7473,16 +7827,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E145" s="56" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -7491,16 +7845,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="C146" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="C146" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D146" s="53" t="s">
-        <v>524</v>
-      </c>
       <c r="E146" s="54" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -7509,16 +7863,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="55" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D147" s="55" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E147" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -7527,16 +7881,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="53" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D148" s="53" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E148" s="54" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -7545,16 +7899,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="55" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E149" s="56" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -7563,16 +7917,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="53" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D150" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E150" s="54" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -7581,16 +7935,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D151" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -7599,16 +7953,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="53" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E152" s="54" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -7617,16 +7971,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D153" s="55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E153" s="56" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -7635,16 +7989,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="53" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -7653,16 +8007,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C155" s="55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D155" s="55" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E155" s="56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -7671,16 +8025,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="53" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E156" s="54" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -7689,16 +8043,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="55" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C157" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D157" s="55" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E157" s="56" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -7707,16 +8061,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D158" s="53" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E158" s="54" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -7725,16 +8079,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C159" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E159" s="56" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -7743,16 +8097,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="53" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C160" s="53" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D160" s="53" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E160" s="54" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -7761,16 +8115,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="55" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D161" s="55" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E161" s="56" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -7779,16 +8133,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="53" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C162" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D162" s="53" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E162" s="54" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -7797,16 +8151,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="55" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C163" s="55" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D163" s="55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E163" s="56" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -7815,16 +8169,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="53" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C164" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D164" s="53" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E164" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -7833,16 +8187,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="55" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C165" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E165" s="56" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -7851,16 +8205,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C166" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D166" s="53" t="s">
         <v>560</v>
       </c>
-      <c r="C166" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D166" s="53" t="s">
-        <v>565</v>
-      </c>
       <c r="E166" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -7869,14 +8223,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="55" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C167" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D167" s="55"/>
       <c r="E167" s="56" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -7885,16 +8239,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C168" s="53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D168" s="53" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E168" s="54" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -7903,16 +8257,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="55" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C169" s="55" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E169" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -7921,16 +8275,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C170" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D170" s="53" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E170" s="54" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -7939,16 +8293,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="55" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C171" s="55" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D171" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E171" s="56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -7957,16 +8311,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C172" s="53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D172" s="53" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E172" s="54" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -7975,16 +8329,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="55" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C173" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E173" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -7993,16 +8347,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="53" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C174" s="53" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D174" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E174" s="54" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -8011,16 +8365,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="55" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C175" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E175" s="56" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -8029,16 +8383,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C176" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D176" s="53" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E176" s="54" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -8047,16 +8401,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="55" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C177" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E177" s="56" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -8065,16 +8419,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C178" s="53" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D178" s="53" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E178" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -8083,16 +8437,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="55" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C179" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D179" s="55" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E179" s="56" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -8101,16 +8455,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="53" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C180" s="53" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D180" s="53" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E180" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -8119,16 +8473,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="55" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C181" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E181" s="56" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -8137,16 +8491,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="53" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C182" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D182" s="53" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E182" s="54" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -8155,16 +8509,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="55" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D183" s="55" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E183" s="56" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
@@ -8173,16 +8527,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="53" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C184" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D184" s="53" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
@@ -8191,16 +8545,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="55" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C185" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E185" s="56" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
@@ -8209,16 +8563,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="53" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C186" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D186" s="53" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E186" s="54" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
@@ -8227,16 +8581,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="55" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C187" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E187" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
@@ -8245,16 +8599,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="53" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D188" s="53" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E188" s="54" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -8263,16 +8617,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="55" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C189" s="55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E189" s="56" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
@@ -8281,16 +8635,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="53" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C190" s="53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D190" s="53" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E190" s="54" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
@@ -8299,16 +8653,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="55" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C191" s="55" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E191" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
@@ -8317,16 +8671,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="53" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C192" s="53" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D192" s="53" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E192" s="54" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
@@ -8335,16 +8689,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="55" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C193" s="55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D193" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E193" s="56" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
@@ -8353,16 +8707,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="53" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C194" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D194" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E194" s="54" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
@@ -8371,16 +8725,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="55" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C195" s="55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D195" s="55" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E195" s="56" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -8389,16 +8743,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="53" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C196" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D196" s="53" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E196" s="54" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -8407,16 +8761,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="55" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C197" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E197" s="56" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
@@ -8425,16 +8779,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="53" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C198" s="53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D198" s="53" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E198" s="54" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
@@ -8443,16 +8797,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="55" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C199" s="55" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E199" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
@@ -8461,16 +8815,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="53" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C200" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D200" s="53" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E200" s="54" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
@@ -8479,16 +8833,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="55" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C201" s="55" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E201" s="56" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
@@ -8497,16 +8851,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="53" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C202" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D202" s="53" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E202" s="54" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
@@ -8515,16 +8869,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="55" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C203" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E203" s="56" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
@@ -8533,16 +8887,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="53" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C204" s="53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D204" s="53" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E204" s="54" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
@@ -8551,16 +8905,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C205" s="55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E205" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
@@ -8569,16 +8923,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="53" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C206" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D206" s="53" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E206" s="54" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
@@ -8587,16 +8941,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="55" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C207" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D207" s="55" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E207" s="56" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
@@ -8605,16 +8959,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="53" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C208" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D208" s="53" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E208" s="54" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
@@ -8623,16 +8977,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="55" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C209" s="55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E209" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
@@ -8641,16 +8995,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="53" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C210" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D210" s="53" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E210" s="54" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
@@ -8659,16 +9013,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="55" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C211" s="55" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E211" s="56" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
@@ -8677,16 +9031,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="53" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C212" s="53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D212" s="53" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E212" s="54" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
@@ -8695,16 +9049,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="55" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C213" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E213" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
@@ -8713,16 +9067,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="53" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C214" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D214" s="53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E214" s="54" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
@@ -8731,16 +9085,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="55" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C215" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D215" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E215" s="56" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
@@ -8749,16 +9103,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="53" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C216" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D216" s="53" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E216" s="54" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
@@ -8767,16 +9121,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="55" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C217" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D217" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E217" s="56" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
@@ -8785,16 +9139,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="53" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C218" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D218" s="53" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E218" s="54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
@@ -8803,16 +9157,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="55" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C219" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D219" s="55" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E219" s="56" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
@@ -8821,16 +9175,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="53" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C220" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D220" s="53" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E220" s="54" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
@@ -8839,16 +9193,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="55" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C221" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D221" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E221" s="56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
@@ -8857,16 +9211,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="53" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C222" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D222" s="53" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E222" s="54" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
@@ -8875,16 +9229,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="55" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C223" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D223" s="55" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E223" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
@@ -8893,16 +9247,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="53" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C224" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D224" s="53" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E224" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
@@ -8911,16 +9265,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="55" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C225" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D225" s="55" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E225" s="56" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
@@ -8929,16 +9283,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="53" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C226" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D226" s="53" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E226" s="54" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
@@ -8947,16 +9301,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="55" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C227" s="55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E227" s="56" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
@@ -8965,16 +9319,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="53" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C228" s="53" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D228" s="53" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E228" s="54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
@@ -8983,16 +9337,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="55" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C229" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E229" s="56" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
@@ -9001,16 +9355,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="53" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C230" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D230" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E230" s="54" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
@@ -9019,14 +9373,14 @@
         <v>230</v>
       </c>
       <c r="B231" s="55" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C231" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D231" s="55"/>
       <c r="E231" s="56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
@@ -9035,16 +9389,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="53" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D232" s="53" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E232" s="54" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
@@ -9053,16 +9407,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="55" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C233" s="55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D233" s="55" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E233" s="56" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
@@ -9071,16 +9425,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="53" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C234" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D234" s="53" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E234" s="54" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
@@ -9089,16 +9443,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="55" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C235" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D235" s="55" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E235" s="56" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
@@ -9107,16 +9461,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="53" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C236" s="53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D236" s="53" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E236" s="54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
@@ -9125,16 +9479,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="55" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C237" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D237" s="55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E237" s="56" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
@@ -9143,16 +9497,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="53" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C238" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D238" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E238" s="54" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
@@ -9161,16 +9515,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="55" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C239" s="55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D239" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E239" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
@@ -9179,16 +9533,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="53" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C240" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D240" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E240" s="54" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
@@ -9197,16 +9551,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="55" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C241" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E241" s="56" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
@@ -9215,16 +9569,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="53" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C242" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D242" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E242" s="54" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
@@ -9233,16 +9587,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="55" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C243" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D243" s="55" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E243" s="56" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
@@ -9251,16 +9605,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="53" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C244" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D244" s="53" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E244" s="54" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
@@ -9269,16 +9623,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="55" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C245" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E245" s="56" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
@@ -9287,16 +9641,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="53" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C246" s="53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D246" s="53" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E246" s="54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
@@ -9305,16 +9659,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="55" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C247" s="55" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D247" s="55" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E247" s="56" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
@@ -9323,16 +9677,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="53" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D248" s="53" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E248" s="54" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
@@ -9341,16 +9695,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="55" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C249" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D249" s="55" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E249" s="56" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
@@ -9359,16 +9713,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="53" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D250" s="53" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E250" s="54" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
@@ -9377,16 +9731,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="55" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C251" s="55" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D251" s="55" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E251" s="56" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
@@ -9395,16 +9749,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="53" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D252" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E252" s="54" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
@@ -9413,16 +9767,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="55" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C253" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D253" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E253" s="56" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
@@ -9431,16 +9785,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="53" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D254" s="53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E254" s="54" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
@@ -9449,16 +9803,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="55" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C255" s="55" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D255" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E255" s="56" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.15">
@@ -9467,16 +9821,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="53" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C256" s="53" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D256" s="53" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E256" s="54" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
@@ -9485,16 +9839,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="55" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C257" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D257" s="55" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E257" s="56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
@@ -9503,16 +9857,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="53" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C258" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D258" s="53" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E258" s="54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
@@ -9521,16 +9875,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="55" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C259" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D259" s="55" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E259" s="56" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
@@ -9539,16 +9893,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="53" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D260" s="53" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E260" s="54" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
@@ -9557,16 +9911,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="55" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C261" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D261" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E261" s="56" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
@@ -9575,16 +9929,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="53" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D262" s="53" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E262" s="54" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
@@ -9593,16 +9947,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="55" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C263" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D263" s="55" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E263" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
@@ -9611,16 +9965,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="53" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C264" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E264" s="54" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
@@ -9629,16 +9983,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="55" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C265" s="55" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D265" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E265" s="56" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
@@ -9647,16 +10001,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="53" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D266" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E266" s="54" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
@@ -9665,16 +10019,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="55" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C267" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D267" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E267" s="56" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
@@ -9683,16 +10037,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="53" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C268" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D268" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E268" s="54" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
@@ -9701,16 +10055,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="55" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C269" s="55" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D269" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E269" s="56" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
@@ -9719,16 +10073,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C270" s="53" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D270" s="53" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E270" s="54" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
@@ -9737,16 +10091,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="55" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C271" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D271" s="55" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E271" s="56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.15">
@@ -9755,16 +10109,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C272" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D272" s="53" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E272" s="54" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
@@ -9773,16 +10127,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="55" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C273" s="55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D273" s="55" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E273" s="56" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
@@ -9791,16 +10145,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D274" s="53" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E274" s="54" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
@@ -9809,16 +10163,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C275" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D275" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E275" s="56" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
@@ -9827,16 +10181,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="53" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C276" s="53" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D276" s="53" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E276" s="54" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
@@ -9845,16 +10199,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="55" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C277" s="55" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D277" s="55" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E277" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
@@ -9863,16 +10217,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D278" s="53" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E278" s="54" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
@@ -9881,16 +10235,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C279" s="55" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D279" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E279" s="56" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
@@ -9899,16 +10253,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="53" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C280" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D280" s="53" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E280" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
@@ -9917,16 +10271,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="55" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D281" s="55" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E281" s="56" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
@@ -9935,16 +10289,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="53" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C282" s="53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D282" s="53" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E282" s="54" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
@@ -9953,16 +10307,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="55" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D283" s="55" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E283" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
@@ -9971,16 +10325,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="53" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C284" s="53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D284" s="53" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E284" s="54" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
@@ -9989,16 +10343,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="55" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C285" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D285" s="55" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E285" s="56" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
@@ -10007,16 +10361,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="53" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C286" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D286" s="53" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E286" s="54" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
@@ -10025,16 +10379,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="55" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C287" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D287" s="55" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E287" s="56" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
@@ -10043,16 +10397,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C288" s="53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D288" s="53" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E288" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
@@ -10061,16 +10415,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="55" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C289" s="55" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D289" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E289" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
@@ -10079,16 +10433,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C290" s="53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E290" s="54" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
@@ -10097,16 +10451,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="55" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C291" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E291" s="56" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
@@ -10115,16 +10469,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="53" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C292" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D292" s="53" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E292" s="54" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
@@ -10133,16 +10487,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="55" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C293" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E293" s="56" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
@@ -10151,16 +10505,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="53" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C294" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D294" s="53" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E294" s="54" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
@@ -10169,16 +10523,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="55" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C295" s="55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D295" s="55" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E295" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
@@ -10187,16 +10541,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="53" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C296" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D296" s="53" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E296" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
@@ -10205,16 +10559,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="55" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C297" s="55" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D297" s="55" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E297" s="56" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
@@ -10223,16 +10577,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="53" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C298" s="53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D298" s="53" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E298" s="54" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
@@ -10241,16 +10595,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="55" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C299" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D299" s="55" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E299" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
@@ -10259,16 +10613,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="53" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C300" s="53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D300" s="53" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E300" s="54" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
@@ -10277,16 +10631,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="55" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C301" s="55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D301" s="55" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E301" s="56" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
@@ -10295,16 +10649,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="53" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C302" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D302" s="53" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E302" s="54" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
@@ -10313,16 +10667,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="55" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C303" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D303" s="55" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E303" s="56" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
@@ -10331,16 +10685,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C304" s="53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D304" s="53" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E304" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
@@ -10349,16 +10703,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="55" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C305" s="55" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D305" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E305" s="56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
@@ -10367,16 +10721,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C306" s="53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D306" s="53" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E306" s="54" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
@@ -10385,16 +10739,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="55" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C307" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D307" s="55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E307" s="56" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
@@ -10403,16 +10757,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="53" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C308" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D308" s="53" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E308" s="54" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
@@ -10421,16 +10775,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="55" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C309" s="55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D309" s="55" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E309" s="56" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
@@ -10439,16 +10793,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="53" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C310" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D310" s="53" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E310" s="54" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
@@ -10457,16 +10811,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="55" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C311" s="55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D311" s="55" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E311" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
@@ -10475,16 +10829,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="53" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C312" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D312" s="53" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E312" s="54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
@@ -10493,22 +10847,160 @@
         <v>312</v>
       </c>
       <c r="B313" s="57" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C313" s="57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D313" s="57" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E313" s="50" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10558,7 +11050,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10661,17 +11153,17 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10753,7 +11245,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F5" s="48"/>
       <c r="G5" s="45"/>
@@ -10809,12 +11301,12 @@
     <row r="10" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10825,10 +11317,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10837,155 +11329,193 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="E11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E15" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -10996,6 +11526,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -11030,7 +11599,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
@@ -11044,7 +11613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -11062,19 +11631,19 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -11223,7 +11792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -11235,134 +11804,93 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/なんでも実況VIP１０周年.xlsx
+++ b/なんでも実況VIP１０周年.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="849">
   <si>
     <t>なんでも実況VIP10周年記念企画</t>
     <rPh sb="4" eb="6">
@@ -3715,6 +3715,32 @@
   </si>
   <si>
     <t>・２Ｄジャンプアクション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>３：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>４：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>５：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>６：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>７：スーパーマリオ</t>
+  </si>
+  <si>
+    <t>なん実歴史とゲーム作りは兼任だから、まずパソコン昔話ソフトでなんか軽く作ってみて</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体作業量の振り分けと同時進行でなん実の化石達からインタビュー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4858,7 +4884,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10871,7 +10897,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10912,10 +10938,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10998,9 +11024,20 @@
         <v>840</v>
       </c>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11174,16 +11211,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="2.625" customWidth="1"/>
     <col min="9" max="9" width="2.75" customWidth="1"/>
+    <col min="12" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11214,6 +11252,9 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="25"/>
+      <c r="J2" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
@@ -11227,6 +11268,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="25"/>
+      <c r="J3" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -11238,6 +11282,9 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
+      <c r="J4" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
@@ -11251,6 +11298,9 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="49"/>
+      <c r="J5" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
@@ -11264,6 +11314,9 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="33"/>
+      <c r="J6" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
@@ -11275,6 +11328,9 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="25"/>
+      <c r="J7" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
@@ -11320,7 +11376,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11569,7 +11625,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11797,7 +11853,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B23"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
